--- a/results_summary.xlsx
+++ b/results_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17235" windowHeight="7230"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="17235" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="164">
   <si>
     <t>filters</t>
   </si>
@@ -435,12 +435,6 @@
     <t>flatten-&gt;maxAveragepooling</t>
   </si>
   <si>
-    <t>0.8154</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>0.00084</t>
   </si>
   <si>
@@ -469,6 +463,51 @@
   </si>
   <si>
     <t>156</t>
+  </si>
+  <si>
+    <t>Change learning rate dynamically from 0.004 to 0.001</t>
+  </si>
+  <si>
+    <t>M-32</t>
+  </si>
+  <si>
+    <t>0.00082</t>
+  </si>
+  <si>
+    <t>0.8318</t>
+  </si>
+  <si>
+    <t>Augmented data</t>
+  </si>
+  <si>
+    <t>M-33</t>
+  </si>
+  <si>
+    <t>0.00069</t>
+  </si>
+  <si>
+    <t>0.8409</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>batch_size=10</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>0.8432</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>0.00073</t>
   </si>
 </sst>
 </file>
@@ -1275,6 +1314,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,24 +1364,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1692,7 @@
     <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
@@ -1667,14 +1706,17 @@
     <col min="31" max="31" width="9.140625" style="1"/>
     <col min="32" max="32" width="13.85546875" style="1" customWidth="1"/>
     <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="16" t="s">
         <v>21</v>
       </c>
@@ -1768,9 +1810,15 @@
       <c r="AG1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
+      <c r="AH1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
       <c r="AM1" s="17"/>
@@ -1788,7 +1836,7 @@
       <c r="AY1" s="17"/>
     </row>
     <row r="2" spans="1:51" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -1869,7 +1917,7 @@
       <c r="AA2" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="73" t="s">
+      <c r="AB2" s="62" t="s">
         <v>39</v>
       </c>
       <c r="AC2" s="51"/>
@@ -1883,9 +1931,15 @@
       <c r="AG2" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
+      <c r="AH2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>39</v>
+      </c>
       <c r="AK2" s="33"/>
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
@@ -1903,7 +1957,7 @@
       <c r="AY2" s="33"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1996,9 +2050,15 @@
       <c r="AG3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AH3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="56" t="s">
+        <v>16</v>
+      </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -2016,7 +2076,7 @@
       <c r="AY3" s="2"/>
     </row>
     <row r="4" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +2143,7 @@
       <c r="W4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="X4" s="72" t="s">
+      <c r="X4" s="61" t="s">
         <v>107</v>
       </c>
       <c r="Y4" s="59" t="s">
@@ -2092,26 +2152,32 @@
       <c r="Z4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AA4" s="61" t="s">
         <v>107</v>
       </c>
       <c r="AB4" s="59" t="s">
         <v>107</v>
       </c>
       <c r="AC4" s="52"/>
-      <c r="AD4" s="72" t="s">
+      <c r="AD4" s="61" t="s">
         <v>107</v>
       </c>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG4" s="82" t="s">
+      <c r="AF4" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG4" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AH4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" s="61" t="s">
+        <v>107</v>
+      </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
@@ -2129,7 +2195,7 @@
       <c r="AY4" s="2"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2193,7 +2259,7 @@
       <c r="V5" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="57" t="s">
         <v>26</v>
       </c>
       <c r="X5" s="38" t="s">
@@ -2220,11 +2286,17 @@
         <v>26</v>
       </c>
       <c r="AG5" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="AH5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ5" s="56" t="s">
+        <v>143</v>
+      </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
@@ -2242,7 +2314,7 @@
       <c r="AY5" s="2"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
@@ -2335,9 +2407,15 @@
       <c r="AG6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AH6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ6" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -2450,9 +2528,15 @@
       <c r="AG7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="56" t="s">
+        <v>16</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -2470,7 +2554,7 @@
       <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2527,7 +2611,7 @@
       <c r="S8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="57" t="s">
         <v>31</v>
       </c>
       <c r="U8" s="38" t="s">
@@ -2565,9 +2649,15 @@
       <c r="AG8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AH8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -2585,7 +2675,7 @@
       <c r="AY8" s="2"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2678,9 +2768,15 @@
       <c r="AG9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AH9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ9" s="56" t="s">
+        <v>34</v>
+      </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
@@ -2698,7 +2794,7 @@
       <c r="AY9" s="2"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,9 +2887,15 @@
       <c r="AG10" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AH10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" s="56" t="s">
+        <v>108</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
@@ -2811,7 +2913,7 @@
       <c r="AY10" s="2"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="81" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2906,9 +3008,15 @@
       <c r="AG11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AH11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="56" t="s">
+        <v>121</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -2926,7 +3034,7 @@
       <c r="AY11" s="2"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -3019,9 +3127,15 @@
       <c r="AG12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AH12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" s="56" t="s">
+        <v>14</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -3039,7 +3153,7 @@
       <c r="AY12" s="2"/>
     </row>
     <row r="13" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3103,38 +3217,44 @@
       <c r="V13" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="71" t="s">
+      <c r="W13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="X13" s="71" t="s">
+      <c r="X13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="71" t="s">
+      <c r="Y13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="Z13" s="71" t="s">
+      <c r="Z13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="AA13" s="71" t="s">
+      <c r="AA13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="AB13" s="74" t="s">
+      <c r="AB13" s="63" t="s">
         <v>111</v>
       </c>
       <c r="AC13" s="53"/>
-      <c r="AD13" s="71" t="s">
+      <c r="AD13" s="60" t="s">
         <v>111</v>
       </c>
       <c r="AE13" s="10"/>
-      <c r="AF13" s="81" t="s">
+      <c r="AF13" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" s="81" t="s">
+      <c r="AG13" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="AH13" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI13" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ13" s="60" t="s">
+        <v>160</v>
+      </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
       <c r="AM13" s="10"/>
@@ -3152,7 +3272,7 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3164,7 +3284,7 @@
       <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="72" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="45" t="s">
@@ -3194,13 +3314,13 @@
       <c r="N14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="O14" s="72" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="72" t="s">
         <v>47</v>
       </c>
       <c r="R14" s="11" t="s">
@@ -3212,10 +3332,10 @@
       <c r="T14" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="U14" s="60" t="s">
+      <c r="U14" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="60" t="s">
+      <c r="V14" s="72" t="s">
         <v>47</v>
       </c>
       <c r="W14" s="45" t="s">
@@ -3224,7 +3344,7 @@
       <c r="X14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="Y14" s="75" t="s">
+      <c r="Y14" s="64" t="s">
         <v>134</v>
       </c>
       <c r="Z14" s="45" t="s">
@@ -3236,22 +3356,30 @@
       <c r="AB14" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AC14" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD14" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="78" t="s">
+      <c r="AC14" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE14" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF14" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG14" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AG14" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
+      <c r="AH14" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI14" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ14" s="67" t="s">
+        <v>163</v>
+      </c>
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
@@ -3269,7 +3397,7 @@
       <c r="AY14" s="12"/>
     </row>
     <row r="15" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
@@ -3279,7 +3407,7 @@
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="46" t="s">
         <v>48</v>
       </c>
@@ -3307,11 +3435,11 @@
       <c r="N15" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="O15" s="61"/>
+      <c r="O15" s="73"/>
       <c r="P15" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="61"/>
+      <c r="Q15" s="73"/>
       <c r="R15" s="42" t="s">
         <v>100</v>
       </c>
@@ -3321,15 +3449,15 @@
       <c r="T15" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="42" t="s">
         <v>128</v>
       </c>
       <c r="X15" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="Y15" s="76" t="s">
+      <c r="Y15" s="65" t="s">
         <v>131</v>
       </c>
       <c r="Z15" s="42" t="s">
@@ -3341,23 +3469,27 @@
       <c r="AB15" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="AC15" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD15" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="79" t="s">
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AG15" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
+      <c r="AG15" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH15" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI15" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ15" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK15" s="68"/>
       <c r="AL15" s="22"/>
       <c r="AM15" s="22"/>
       <c r="AN15" s="22"/>
@@ -3374,7 +3506,7 @@
       <c r="AY15" s="22"/>
     </row>
     <row r="16" spans="1:51" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="24" t="s">
         <v>44</v>
       </c>
@@ -3384,7 +3516,7 @@
       <c r="D16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="62"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="47" t="s">
         <v>49</v>
       </c>
@@ -3412,11 +3544,11 @@
       <c r="N16" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="O16" s="62"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="62"/>
+      <c r="Q16" s="74"/>
       <c r="R16" s="43" t="s">
         <v>106</v>
       </c>
@@ -3426,15 +3558,15 @@
       <c r="T16" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="43" t="s">
         <v>129</v>
       </c>
       <c r="X16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="Y16" s="77" t="s">
+      <c r="Y16" s="66" t="s">
         <v>129</v>
       </c>
       <c r="Z16" s="43" t="s">
@@ -3446,22 +3578,26 @@
       <c r="AB16" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AC16" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD16" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG16" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG16" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI16" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ16" s="69" t="s">
+        <v>162</v>
+      </c>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
       <c r="AM16" s="14"/>
@@ -3478,7 +3614,7 @@
       <c r="AX16" s="14"/>
       <c r="AY16" s="14"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
@@ -3486,22 +3622,44 @@
       <c r="AC18" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="AH18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J19" s="27"/>
+      <c r="AI19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="U14:U16"/>
     <mergeCell ref="V14:V16"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="O14:O16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3510,12 +3668,1035 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+    </row>
+    <row r="2" spans="1:31" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+    </row>
+    <row r="14" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+    </row>
+    <row r="16" spans="1:31" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
